--- a/整合結果/EPU匯出結果/2025-06-09/2025-06-09_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-09/2025-06-09_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$23:$A$24</f>
+              <f>'Sheet1'!$A$25:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$23:$B$24</f>
+              <f>'Sheet1'!$B$25:$B$26</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>22</row>
+      <row>24</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,42 +1247,101 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-06-09_1436_自由時報_財經_Q1前十大中古屋交易熱區 台中北區唯一總價不到1000萬.txt</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>房市、房價、經濟</t>
+        </is>
+      </c>
+    </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>統計摘要</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>10</v>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-06-09_1537_自由時報_財經_風控趨嚴 Q1套房平均房貸利率衝至2.8％.txt</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>房市、房貸、經濟</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>升息、央行、房貸利率、緊縮</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>9</v>
+          <t>統計摘要</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>52.63%</t>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>47.62%</t>
         </is>
       </c>
     </row>
